--- a/tests/for_favor_func1_2_3/after_func3_登记表+税远志.xlsx
+++ b/tests/for_favor_func1_2_3/after_func3_登记表+税远志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7810" tabRatio="726" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="2520" windowWidth="14400" windowHeight="6460" tabRatio="726" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="五四青年科学奖立项申请表" sheetId="1" state="visible" r:id="rId1"/>

--- a/tests/for_favor_func1_2_3/after_func3_登记表+税远志.xlsx
+++ b/tests/for_favor_func1_2_3/after_func3_登记表+税远志.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="2520" windowWidth="14400" windowHeight="6460" tabRatio="726" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2177" yWindow="2177" windowWidth="16589" windowHeight="10783" tabRatio="726" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="五四青年科学奖立项申请表" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="跨学科立项申请表" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="特别贡献奖立项申请表" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="五四青年科学奖立项申请表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="跨学科立项申请表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="特别贡献奖立项申请表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="法学">Sheet2!$D$2:$D$40</definedName>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -128,14 +128,8 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color rgb="00000000"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -152,6 +146,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,10 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -386,8 +383,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
@@ -405,8 +402,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
@@ -707,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -718,25 +715,25 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="0"/>
   <cols>
-    <col width="14.7265625" customWidth="1" style="9" min="1" max="1"/>
-    <col width="47.6328125" customWidth="1" style="9" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="9" min="3" max="3"/>
-    <col width="23.1796875" customWidth="1" style="9" min="4" max="4"/>
-    <col width="9.453125" customWidth="1" style="9" min="5" max="5"/>
-    <col width="23.1796875" customWidth="1" style="9" min="6" max="6"/>
-    <col width="11.7265625" customWidth="1" style="9" min="7" max="7"/>
-    <col width="25.1796875" customWidth="1" style="9" min="8" max="8"/>
-    <col width="11.36328125" customWidth="1" style="9" min="9" max="9"/>
-    <col width="11.36328125" customWidth="1" style="9" min="11" max="11"/>
-    <col width="12.453125" customWidth="1" style="9" min="12" max="12"/>
-    <col width="21.453125" customWidth="1" style="9" min="13" max="13"/>
-    <col width="12.453125" customWidth="1" style="9" min="14" max="14"/>
-    <col width="15.7265625" customWidth="1" style="9" min="15" max="15"/>
-    <col width="30.81640625" customWidth="1" style="9" min="16" max="16"/>
+    <col width="14.734375" customWidth="1" style="9" min="1" max="1"/>
+    <col width="47.62890625" customWidth="1" style="9" min="2" max="2"/>
+    <col width="15.15625" customWidth="1" style="9" min="3" max="3"/>
+    <col width="23.15625" customWidth="1" style="9" min="4" max="4"/>
+    <col width="9.47265625" customWidth="1" style="9" min="5" max="5"/>
+    <col width="23.15625" customWidth="1" style="9" min="6" max="6"/>
+    <col width="11.734375" customWidth="1" style="9" min="7" max="7"/>
+    <col width="25.15625" customWidth="1" style="9" min="8" max="8"/>
+    <col width="11.3671875" customWidth="1" style="9" min="9" max="9"/>
+    <col width="11.3671875" customWidth="1" style="9" min="11" max="11"/>
+    <col width="12.47265625" customWidth="1" style="9" min="12" max="12"/>
+    <col width="21.47265625" customWidth="1" style="9" min="13" max="13"/>
+    <col width="12.47265625" customWidth="1" style="9" min="14" max="14"/>
+    <col width="15.734375" customWidth="1" style="9" min="15" max="15"/>
+    <col width="30.7890625" customWidth="1" style="9" min="16" max="16"/>
     <col width="10" customWidth="1" style="9" min="20" max="20"/>
-    <col width="18.90625" customWidth="1" style="9" min="21" max="22"/>
+    <col width="18.89453125" customWidth="1" style="9" min="21" max="22"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -778,7 +775,7 @@
       <c r="U4" s="15" t="n"/>
       <c r="V4" s="15" t="n"/>
     </row>
-    <row r="5" ht="28" customFormat="1" customHeight="1" s="4">
+    <row r="5" ht="27.65" customFormat="1" customHeight="1" s="4">
       <c r="A5" s="26" t="inlineStr">
         <is>
           <t>序号</t>
@@ -904,17 +901,17 @@
           <t>五四青年科学奖</t>
         </is>
       </c>
-      <c r="D6" s="28" t="inlineStr">
+      <c r="D6" s="27" t="inlineStr">
         <is>
           <t>发明创造科技制作类</t>
         </is>
       </c>
-      <c r="E6" s="28" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>管理学</t>
         </is>
       </c>
-      <c r="F6" s="28" t="inlineStr">
+      <c r="F6" s="18" t="inlineStr">
         <is>
           <t>图书情报与档案管理</t>
         </is>
@@ -924,17 +921,17 @@
           <t>税远志</t>
         </is>
       </c>
-      <c r="H6" s="28" t="inlineStr">
+      <c r="H6" s="18" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="I6" s="28" t="inlineStr">
+      <c r="I6" s="18" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="J6" s="28" t="inlineStr">
+      <c r="J6" s="18" t="inlineStr">
         <is>
           <t>湖北</t>
         </is>
@@ -942,7 +939,7 @@
       <c r="K6" s="18" t="n">
         <v>2100016640</v>
       </c>
-      <c r="L6" s="28" t="inlineStr">
+      <c r="L6" s="18" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
@@ -970,12 +967,12 @@
           <t>赵丹群</t>
         </is>
       </c>
-      <c r="R6" s="28" t="inlineStr">
+      <c r="R6" s="18" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="S6" s="28" t="inlineStr">
+      <c r="S6" s="18" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
@@ -1008,17 +1005,17 @@
           <t>五四青年科学奖</t>
         </is>
       </c>
-      <c r="D7" s="28" t="inlineStr">
+      <c r="D7" s="27" t="inlineStr">
         <is>
           <t>发明创造科技制作类</t>
         </is>
       </c>
-      <c r="E7" s="28" t="inlineStr">
+      <c r="E7" s="18" t="inlineStr">
         <is>
           <t>管理学</t>
         </is>
       </c>
-      <c r="F7" s="28" t="inlineStr">
+      <c r="F7" s="18" t="inlineStr">
         <is>
           <t>图书情报与档案管理</t>
         </is>
@@ -1028,17 +1025,17 @@
           <t>喻倩倩</t>
         </is>
       </c>
-      <c r="H7" s="28" t="inlineStr">
+      <c r="H7" s="18" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="I7" s="28" t="inlineStr">
+      <c r="I7" s="18" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="J7" s="28" t="inlineStr">
+      <c r="J7" s="18" t="inlineStr">
         <is>
           <t>湖北</t>
         </is>
@@ -1046,7 +1043,7 @@
       <c r="K7" s="18" t="n">
         <v>2301211715</v>
       </c>
-      <c r="L7" s="28" t="inlineStr">
+      <c r="L7" s="18" t="inlineStr">
         <is>
           <t>法学院</t>
         </is>
@@ -1074,12 +1071,12 @@
           <t>赵丹群</t>
         </is>
       </c>
-      <c r="R7" s="28" t="inlineStr">
+      <c r="R7" s="18" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="S7" s="28" t="inlineStr">
+      <c r="S7" s="18" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
@@ -1112,17 +1109,17 @@
           <t>五四青年科学奖</t>
         </is>
       </c>
-      <c r="D8" s="28" t="inlineStr">
+      <c r="D8" s="27" t="inlineStr">
         <is>
           <t>发明创造科技制作类</t>
         </is>
       </c>
-      <c r="E8" s="28" t="inlineStr">
+      <c r="E8" s="18" t="inlineStr">
         <is>
           <t>管理学</t>
         </is>
       </c>
-      <c r="F8" s="28" t="inlineStr">
+      <c r="F8" s="18" t="inlineStr">
         <is>
           <t>图书情报与档案管理</t>
         </is>
@@ -1132,17 +1129,17 @@
           <t>张天行</t>
         </is>
       </c>
-      <c r="H8" s="28" t="inlineStr">
+      <c r="H8" s="18" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="I8" s="28" t="inlineStr">
+      <c r="I8" s="18" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="J8" s="28" t="inlineStr">
+      <c r="J8" s="18" t="inlineStr">
         <is>
           <t>云南</t>
         </is>
@@ -1150,7 +1147,7 @@
       <c r="K8" s="18" t="n">
         <v>2100016628</v>
       </c>
-      <c r="L8" s="28" t="inlineStr">
+      <c r="L8" s="18" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
@@ -1178,12 +1175,12 @@
           <t>赵丹群</t>
         </is>
       </c>
-      <c r="R8" s="28" t="inlineStr">
+      <c r="R8" s="18" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="S8" s="28" t="inlineStr">
+      <c r="S8" s="18" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
@@ -1250,9 +1247,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="P6" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="P7" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="P8" r:id="rId3"/>
+    <hyperlink ref="P6" r:id="rId1"/>
+    <hyperlink ref="P7" r:id="rId2"/>
+    <hyperlink ref="P8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
@@ -1271,19 +1268,19 @@
       <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="0"/>
   <cols>
-    <col width="13.1796875" customWidth="1" style="9" min="1" max="1"/>
-    <col width="40.08984375" customWidth="1" style="9" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="9" min="3" max="3"/>
-    <col width="19.1796875" customWidth="1" style="9" min="4" max="4"/>
-    <col width="23.1796875" customWidth="1" style="9" min="5" max="5"/>
+    <col width="13.15625" customWidth="1" style="9" min="1" max="1"/>
+    <col width="40.1015625" customWidth="1" style="9" min="2" max="2"/>
+    <col width="15.15625" customWidth="1" style="9" min="3" max="3"/>
+    <col width="19.15625" customWidth="1" style="9" min="4" max="4"/>
+    <col width="23.15625" customWidth="1" style="9" min="5" max="5"/>
     <col width="10" customWidth="1" style="9" min="6" max="6"/>
-    <col width="25.1796875" customWidth="1" style="9" min="7" max="7"/>
-    <col width="15.1796875" customWidth="1" style="9" min="12" max="12"/>
-    <col width="17.1796875" customWidth="1" style="9" min="15" max="15"/>
+    <col width="25.15625" customWidth="1" style="9" min="7" max="7"/>
+    <col width="15.15625" customWidth="1" style="9" min="12" max="12"/>
+    <col width="17.15625" customWidth="1" style="9" min="15" max="15"/>
     <col width="10" customWidth="1" style="9" min="19" max="19"/>
-    <col width="19.90625" customWidth="1" style="9" min="20" max="21"/>
+    <col width="19.89453125" customWidth="1" style="9" min="20" max="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -1293,14 +1290,14 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="22" customFormat="1" customHeight="1" s="12">
+    <row r="2" ht="22.05" customFormat="1" customHeight="1" s="12">
       <c r="A2" s="23" t="inlineStr">
         <is>
           <t>北京大学第三十二届挑战杯  跨学科赛事 立项信息登记表</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="28" customFormat="1" customHeight="1" s="4">
+    <row r="3" ht="27.65" customFormat="1" customHeight="1" s="4">
       <c r="A3" s="26" t="inlineStr">
         <is>
           <t>序号</t>
@@ -1437,9 +1434,9 @@
       <c r="U4" s="18" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="n"/>
-      <c r="B5" s="29" t="n"/>
-      <c r="C5" s="29" t="n"/>
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="28" t="n"/>
+      <c r="C5" s="28" t="n"/>
       <c r="D5" s="18" t="n"/>
       <c r="E5" s="25" t="n"/>
       <c r="F5" s="18" t="n"/>
@@ -1460,9 +1457,9 @@
       <c r="U5" s="18" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="n"/>
-      <c r="B6" s="29" t="n"/>
-      <c r="C6" s="29" t="n"/>
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="28" t="n"/>
+      <c r="C6" s="28" t="n"/>
       <c r="D6" s="18" t="n"/>
       <c r="E6" s="25" t="n"/>
       <c r="F6" s="18" t="n"/>
@@ -1483,9 +1480,9 @@
       <c r="U6" s="18" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="n"/>
-      <c r="B7" s="30" t="n"/>
-      <c r="C7" s="30" t="n"/>
+      <c r="A7" s="29" t="n"/>
+      <c r="B7" s="29" t="n"/>
+      <c r="C7" s="29" t="n"/>
       <c r="D7" s="18" t="n"/>
       <c r="E7" s="25" t="n"/>
       <c r="F7" s="18" t="n"/>
@@ -1593,18 +1590,18 @@
       <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="0"/>
   <cols>
-    <col width="34.1796875" customWidth="1" style="9" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="9" min="3" max="3"/>
-    <col width="9.453125" customWidth="1" style="9" min="4" max="4"/>
-    <col width="23.1796875" customWidth="1" style="9" min="5" max="5"/>
-    <col width="11.7265625" customWidth="1" style="9" min="6" max="6"/>
-    <col width="25.1796875" customWidth="1" style="9" min="7" max="7"/>
-    <col width="15.1796875" customWidth="1" style="9" min="12" max="12"/>
-    <col width="17.1796875" customWidth="1" style="9" min="15" max="15"/>
+    <col width="34.15625" customWidth="1" style="9" min="2" max="2"/>
+    <col width="15.15625" customWidth="1" style="9" min="3" max="3"/>
+    <col width="9.47265625" customWidth="1" style="9" min="4" max="4"/>
+    <col width="23.15625" customWidth="1" style="9" min="5" max="5"/>
+    <col width="11.734375" customWidth="1" style="9" min="6" max="6"/>
+    <col width="25.15625" customWidth="1" style="9" min="7" max="7"/>
+    <col width="15.15625" customWidth="1" style="9" min="12" max="12"/>
+    <col width="17.15625" customWidth="1" style="9" min="15" max="15"/>
     <col width="10" customWidth="1" style="9" min="19" max="19"/>
-    <col width="15.90625" customWidth="1" style="9" min="20" max="21"/>
+    <col width="15.89453125" customWidth="1" style="9" min="20" max="21"/>
     <col width="29" customWidth="1" style="9" min="22" max="22"/>
   </cols>
   <sheetData>
@@ -1622,7 +1619,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="28" customFormat="1" customHeight="1" s="4">
+    <row r="3" ht="27.65" customFormat="1" customHeight="1" s="4">
       <c r="A3" s="26" t="inlineStr">
         <is>
           <t>序号</t>
@@ -1759,9 +1756,9 @@
       <c r="U4" s="18" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="n"/>
-      <c r="B5" s="29" t="n"/>
-      <c r="C5" s="29" t="n"/>
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="28" t="n"/>
+      <c r="C5" s="28" t="n"/>
       <c r="D5" s="18" t="n"/>
       <c r="E5" s="25" t="n"/>
       <c r="F5" s="18" t="n"/>
@@ -1782,9 +1779,9 @@
       <c r="U5" s="18" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="n"/>
-      <c r="B6" s="29" t="n"/>
-      <c r="C6" s="29" t="n"/>
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="28" t="n"/>
+      <c r="C6" s="28" t="n"/>
       <c r="D6" s="18" t="n"/>
       <c r="E6" s="25" t="n"/>
       <c r="F6" s="18" t="n"/>
@@ -1805,9 +1802,9 @@
       <c r="U6" s="18" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="n"/>
-      <c r="B7" s="30" t="n"/>
-      <c r="C7" s="30" t="n"/>
+      <c r="A7" s="29" t="n"/>
+      <c r="B7" s="29" t="n"/>
+      <c r="C7" s="29" t="n"/>
       <c r="D7" s="18" t="n"/>
       <c r="E7" s="25" t="n"/>
       <c r="F7" s="18" t="n"/>
@@ -1911,15 +1908,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="0"/>
   <cols>
-    <col width="14.1796875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="27.81640625" customWidth="1" style="9" min="9" max="9"/>
-    <col width="15.08984375" customWidth="1" style="9" min="10" max="10"/>
-    <col width="17.90625" customWidth="1" style="9" min="11" max="11"/>
-    <col width="18.36328125" customWidth="1" style="9" min="12" max="12"/>
-    <col width="15.6328125" customWidth="1" style="9" min="13" max="13"/>
-    <col width="12.54296875" customWidth="1" style="9" min="14" max="14"/>
+    <col width="14.15625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="27.7890625" customWidth="1" style="9" min="9" max="9"/>
+    <col width="15.1015625" customWidth="1" style="9" min="10" max="10"/>
+    <col width="17.89453125" customWidth="1" style="9" min="11" max="11"/>
+    <col width="18.3671875" customWidth="1" style="9" min="12" max="12"/>
+    <col width="15.62890625" customWidth="1" style="9" min="13" max="13"/>
+    <col width="12.5234375" customWidth="1" style="9" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3344,7 +3341,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">

--- a/tests/for_favor_func1_2_3/after_func3_登记表+税远志.xlsx
+++ b/tests/for_favor_func1_2_3/after_func3_登记表+税远志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2177" yWindow="2177" windowWidth="16589" windowHeight="10783" tabRatio="726" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21438" windowHeight="11577" tabRatio="726" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="五四青年科学奖立项申请表" sheetId="1" state="visible" r:id="rId1"/>
@@ -64,38 +64,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="25">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="8"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +90,14 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="14"/>
       <scheme val="minor"/>
@@ -123,18 +105,161 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <strike val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -144,18 +269,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -165,22 +470,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -189,10 +479,123 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -200,34 +603,175 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -236,13 +780,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -255,130 +811,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -699,7 +1217,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -709,550 +1226,549 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A2:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="14.734375" customWidth="1" style="9" min="1" max="1"/>
-    <col width="47.62890625" customWidth="1" style="9" min="2" max="2"/>
-    <col width="15.15625" customWidth="1" style="9" min="3" max="3"/>
-    <col width="23.15625" customWidth="1" style="9" min="4" max="4"/>
-    <col width="9.47265625" customWidth="1" style="9" min="5" max="5"/>
-    <col width="23.15625" customWidth="1" style="9" min="6" max="6"/>
-    <col width="11.734375" customWidth="1" style="9" min="7" max="7"/>
-    <col width="25.15625" customWidth="1" style="9" min="8" max="8"/>
-    <col width="11.3671875" customWidth="1" style="9" min="9" max="9"/>
-    <col width="11.3671875" customWidth="1" style="9" min="11" max="11"/>
-    <col width="12.47265625" customWidth="1" style="9" min="12" max="12"/>
-    <col width="21.47265625" customWidth="1" style="9" min="13" max="13"/>
-    <col width="12.47265625" customWidth="1" style="9" min="14" max="14"/>
-    <col width="15.734375" customWidth="1" style="9" min="15" max="15"/>
-    <col width="30.7890625" customWidth="1" style="9" min="16" max="16"/>
-    <col width="10" customWidth="1" style="9" min="20" max="20"/>
-    <col width="18.89453125" customWidth="1" style="9" min="21" max="22"/>
+    <col width="14.7247706422018" customWidth="1" style="13" min="1" max="1"/>
+    <col width="47.6330275229358" customWidth="1" style="13" min="2" max="2"/>
+    <col width="15.1834862385321" customWidth="1" style="13" min="3" max="3"/>
+    <col width="23.1834862385321" customWidth="1" style="13" min="4" max="4"/>
+    <col width="9.44954128440367" customWidth="1" style="13" min="5" max="5"/>
+    <col width="23.1834862385321" customWidth="1" style="13" min="6" max="6"/>
+    <col width="11.7247706422018" customWidth="1" style="13" min="7" max="7"/>
+    <col width="25.1834862385321" customWidth="1" style="13" min="8" max="8"/>
+    <col width="11.3669724770642" customWidth="1" style="13" min="9" max="9"/>
+    <col width="11.3669724770642" customWidth="1" style="13" min="11" max="11"/>
+    <col width="12.4495412844037" customWidth="1" style="13" min="12" max="12"/>
+    <col width="21.4495412844037" customWidth="1" style="13" min="13" max="13"/>
+    <col width="12.4495412844037" customWidth="1" style="13" min="14" max="14"/>
+    <col width="15.7247706422018" customWidth="1" style="13" min="15" max="15"/>
+    <col width="30.8165137614679" customWidth="1" style="13" min="16" max="16"/>
+    <col width="10" customWidth="1" style="13" min="20" max="20"/>
+    <col width="18.9082568807339" customWidth="1" style="13" min="21" max="22"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2" ht="14" customFormat="1" customHeight="1" s="3">
-      <c r="A2" s="21" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>请以学院为单位汇总完成此Excel后提交至pku62747382@163.com；文件命名方式：五四青年科学奖+院系名称</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="26" customHeight="1" s="9">
-      <c r="A3" s="23" t="inlineStr">
+    <row r="3" ht="26" customHeight="1" s="13">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">北京大学第三十二届挑战杯  五四青年科学奖  立项信息登记表  </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="26" customFormat="1" customHeight="1" s="13">
-      <c r="A4" s="14" t="n"/>
-      <c r="B4" s="15" t="n"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="15" t="n"/>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="15" t="n"/>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="15" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="15" t="n"/>
-      <c r="L4" s="15" t="n"/>
-      <c r="M4" s="15" t="n"/>
-      <c r="N4" s="15" t="n"/>
-      <c r="O4" s="15" t="n"/>
-      <c r="P4" s="15" t="n"/>
-      <c r="Q4" s="15" t="n"/>
-      <c r="R4" s="15" t="n"/>
-      <c r="S4" s="15" t="n"/>
-      <c r="T4" s="15" t="n"/>
-      <c r="U4" s="15" t="n"/>
-      <c r="V4" s="15" t="n"/>
+    <row r="4" ht="26" customFormat="1" customHeight="1" s="17">
+      <c r="A4" s="18" t="n"/>
+      <c r="B4" s="19" t="n"/>
+      <c r="C4" s="19" t="n"/>
+      <c r="D4" s="19" t="n"/>
+      <c r="E4" s="19" t="n"/>
+      <c r="F4" s="19" t="n"/>
+      <c r="G4" s="19" t="n"/>
+      <c r="H4" s="19" t="n"/>
+      <c r="I4" s="19" t="n"/>
+      <c r="J4" s="19" t="n"/>
+      <c r="K4" s="19" t="n"/>
+      <c r="L4" s="19" t="n"/>
+      <c r="M4" s="19" t="n"/>
+      <c r="N4" s="19" t="n"/>
+      <c r="O4" s="19" t="n"/>
+      <c r="P4" s="19" t="n"/>
+      <c r="Q4" s="19" t="n"/>
+      <c r="R4" s="19" t="n"/>
+      <c r="S4" s="19" t="n"/>
+      <c r="T4" s="19" t="n"/>
+      <c r="U4" s="19" t="n"/>
+      <c r="V4" s="19" t="n"/>
     </row>
     <row r="5" ht="27.65" customFormat="1" customHeight="1" s="4">
-      <c r="A5" s="26" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>作品题目</t>
         </is>
       </c>
-      <c r="C5" s="26" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>参赛类别</t>
         </is>
       </c>
-      <c r="D5" s="26" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>作品学科分类</t>
         </is>
       </c>
-      <c r="E5" s="26" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>学科门类</t>
         </is>
       </c>
-      <c r="F5" s="26" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>一级学科</t>
         </is>
       </c>
-      <c r="G5" s="26" t="inlineStr">
+      <c r="G5" s="9" t="inlineStr">
         <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="H5" s="26" t="inlineStr">
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>是否为团队负责人</t>
         </is>
       </c>
-      <c r="I5" s="26" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>性别</t>
         </is>
       </c>
-      <c r="J5" s="26" t="inlineStr">
+      <c r="J5" s="9" t="inlineStr">
         <is>
           <t>生源地</t>
         </is>
       </c>
-      <c r="K5" s="26" t="inlineStr">
+      <c r="K5" s="9" t="inlineStr">
         <is>
           <t>学号</t>
         </is>
       </c>
-      <c r="L5" s="26" t="inlineStr">
+      <c r="L5" s="9" t="inlineStr">
         <is>
           <t>所在院系</t>
         </is>
       </c>
-      <c r="M5" s="26" t="inlineStr">
+      <c r="M5" s="9" t="inlineStr">
         <is>
           <t>年级（如2020级本科生/硕士生/博士生）</t>
         </is>
       </c>
-      <c r="N5" s="26" t="inlineStr">
+      <c r="N5" s="9" t="inlineStr">
         <is>
           <t>手机</t>
         </is>
       </c>
-      <c r="O5" s="26" t="inlineStr">
+      <c r="O5" s="9" t="inlineStr">
         <is>
           <t>微信号</t>
         </is>
       </c>
-      <c r="P5" s="26" t="inlineStr">
+      <c r="P5" s="9" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="Q5" s="26" t="inlineStr">
+      <c r="Q5" s="9" t="inlineStr">
         <is>
           <t>指导教师姓名</t>
         </is>
       </c>
-      <c r="R5" s="26" t="inlineStr">
+      <c r="R5" s="9" t="inlineStr">
         <is>
           <t>指导教师性别</t>
         </is>
       </c>
-      <c r="S5" s="26" t="inlineStr">
+      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>指导教师所在院系</t>
         </is>
       </c>
-      <c r="T5" s="26" t="inlineStr">
+      <c r="T5" s="9" t="inlineStr">
         <is>
           <t>指导教师职称/职务</t>
         </is>
       </c>
-      <c r="U5" s="26" t="inlineStr">
+      <c r="U5" s="9" t="inlineStr">
         <is>
           <t>指导教师电话</t>
         </is>
       </c>
-      <c r="V5" s="26" t="inlineStr">
+      <c r="V5" s="9" t="inlineStr">
         <is>
           <t>指导教师电子邮箱</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1" s="9">
-      <c r="A6" s="18" t="n">
+    <row r="6" ht="14" customHeight="1" s="13">
+      <c r="A6" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>北大学工表格高效处理的Python语言开发项目</t>
         </is>
       </c>
-      <c r="C6" s="18" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>五四青年科学奖</t>
         </is>
       </c>
-      <c r="D6" s="27" t="inlineStr">
+      <c r="D6" s="25" t="inlineStr">
         <is>
           <t>发明创造科技制作类</t>
         </is>
       </c>
-      <c r="E6" s="18" t="inlineStr">
+      <c r="E6" s="22" t="inlineStr">
         <is>
           <t>管理学</t>
         </is>
       </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="F6" s="22" t="inlineStr">
         <is>
           <t>图书情报与档案管理</t>
         </is>
       </c>
-      <c r="G6" s="18" t="inlineStr">
+      <c r="G6" s="22" t="inlineStr">
         <is>
           <t>税远志</t>
         </is>
       </c>
-      <c r="H6" s="18" t="inlineStr">
+      <c r="H6" s="22" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="I6" s="18" t="inlineStr">
+      <c r="I6" s="22" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="J6" s="18" t="inlineStr">
+      <c r="J6" s="22" t="inlineStr">
         <is>
           <t>湖北</t>
         </is>
       </c>
-      <c r="K6" s="18" t="n">
+      <c r="K6" s="22" t="n">
         <v>2100016640</v>
       </c>
-      <c r="L6" s="18" t="inlineStr">
+      <c r="L6" s="22" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
       </c>
-      <c r="M6" s="18" t="inlineStr">
+      <c r="M6" s="22" t="inlineStr">
         <is>
           <t>2021级本科生</t>
         </is>
       </c>
-      <c r="N6" s="18" t="n">
+      <c r="N6" s="22" t="n">
         <v>18511682594</v>
       </c>
-      <c r="O6" s="18" t="inlineStr">
+      <c r="O6" s="22" t="inlineStr">
         <is>
           <t>Avid825</t>
         </is>
       </c>
-      <c r="P6" s="20" t="inlineStr">
+      <c r="P6" s="24" t="inlineStr">
         <is>
           <t>2100016640@stu.pku.edu.cn</t>
         </is>
       </c>
-      <c r="Q6" s="18" t="inlineStr">
+      <c r="Q6" s="22" t="inlineStr">
         <is>
           <t>赵丹群</t>
         </is>
       </c>
-      <c r="R6" s="18" t="inlineStr">
+      <c r="R6" s="22" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="S6" s="18" t="inlineStr">
+      <c r="S6" s="22" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
       </c>
-      <c r="T6" s="18" t="inlineStr">
+      <c r="T6" s="22" t="inlineStr">
         <is>
           <t>教授</t>
         </is>
       </c>
-      <c r="U6" s="18" t="n">
+      <c r="U6" s="22" t="n">
         <v>13621284258</v>
       </c>
-      <c r="V6" s="18" t="inlineStr">
+      <c r="V6" s="22" t="inlineStr">
         <is>
           <t>zdq@pku.edu.cn</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1" s="9">
-      <c r="A7" s="18" t="n">
+    <row r="7" ht="14" customHeight="1" s="13">
+      <c r="A7" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="inlineStr">
+      <c r="B7" s="21" t="inlineStr">
         <is>
           <t>北大学工表格高效处理的Python语言开发项目</t>
         </is>
       </c>
-      <c r="C7" s="18" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>五四青年科学奖</t>
         </is>
       </c>
-      <c r="D7" s="27" t="inlineStr">
+      <c r="D7" s="25" t="inlineStr">
         <is>
           <t>发明创造科技制作类</t>
         </is>
       </c>
-      <c r="E7" s="18" t="inlineStr">
+      <c r="E7" s="22" t="inlineStr">
         <is>
           <t>管理学</t>
         </is>
       </c>
-      <c r="F7" s="18" t="inlineStr">
+      <c r="F7" s="22" t="inlineStr">
         <is>
           <t>图书情报与档案管理</t>
         </is>
       </c>
-      <c r="G7" s="18" t="inlineStr">
+      <c r="G7" s="22" t="inlineStr">
         <is>
           <t>喻倩倩</t>
         </is>
       </c>
-      <c r="H7" s="18" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="I7" s="18" t="inlineStr">
+      <c r="I7" s="22" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="J7" s="18" t="inlineStr">
+      <c r="J7" s="22" t="inlineStr">
         <is>
           <t>湖北</t>
         </is>
       </c>
-      <c r="K7" s="18" t="n">
+      <c r="K7" s="22" t="n">
         <v>2301211715</v>
       </c>
-      <c r="L7" s="18" t="inlineStr">
+      <c r="L7" s="22" t="inlineStr">
         <is>
           <t>法学院</t>
         </is>
       </c>
-      <c r="M7" s="18" t="inlineStr">
+      <c r="M7" s="22" t="inlineStr">
         <is>
           <t>2023级硕士生</t>
         </is>
       </c>
-      <c r="N7" s="18" t="n">
+      <c r="N7" s="22" t="n">
         <v>18801350657</v>
       </c>
-      <c r="O7" s="18" t="inlineStr">
+      <c r="O7" s="22" t="inlineStr">
         <is>
           <t>YQQ20150721</t>
         </is>
       </c>
-      <c r="P7" s="20" t="inlineStr">
+      <c r="P7" s="24" t="inlineStr">
         <is>
           <t>2301211715@pku.edu.cn</t>
         </is>
       </c>
-      <c r="Q7" s="18" t="inlineStr">
+      <c r="Q7" s="22" t="inlineStr">
         <is>
           <t>赵丹群</t>
         </is>
       </c>
-      <c r="R7" s="18" t="inlineStr">
+      <c r="R7" s="22" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="S7" s="18" t="inlineStr">
+      <c r="S7" s="22" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
       </c>
-      <c r="T7" s="18" t="inlineStr">
+      <c r="T7" s="22" t="inlineStr">
         <is>
           <t>教授</t>
         </is>
       </c>
-      <c r="U7" s="18" t="n">
+      <c r="U7" s="22" t="n">
         <v>13621284258</v>
       </c>
-      <c r="V7" s="18" t="inlineStr">
+      <c r="V7" s="22" t="inlineStr">
         <is>
           <t>zdq@pku.edu.cn</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1" s="9">
-      <c r="A8" s="18" t="n">
+    <row r="8" ht="14" customHeight="1" s="13">
+      <c r="A8" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="inlineStr">
+      <c r="B8" s="21" t="inlineStr">
         <is>
           <t>北大学工表格高效处理的Python语言开发项目</t>
         </is>
       </c>
-      <c r="C8" s="18" t="inlineStr">
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>五四青年科学奖</t>
         </is>
       </c>
-      <c r="D8" s="27" t="inlineStr">
+      <c r="D8" s="25" t="inlineStr">
         <is>
           <t>发明创造科技制作类</t>
         </is>
       </c>
-      <c r="E8" s="18" t="inlineStr">
+      <c r="E8" s="22" t="inlineStr">
         <is>
           <t>管理学</t>
         </is>
       </c>
-      <c r="F8" s="18" t="inlineStr">
+      <c r="F8" s="22" t="inlineStr">
         <is>
           <t>图书情报与档案管理</t>
         </is>
       </c>
-      <c r="G8" s="18" t="inlineStr">
+      <c r="G8" s="22" t="inlineStr">
         <is>
           <t>张天行</t>
         </is>
       </c>
-      <c r="H8" s="18" t="inlineStr">
+      <c r="H8" s="22" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="I8" s="18" t="inlineStr">
+      <c r="I8" s="22" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="J8" s="18" t="inlineStr">
+      <c r="J8" s="22" t="inlineStr">
         <is>
           <t>云南</t>
         </is>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="22" t="n">
         <v>2100016628</v>
       </c>
-      <c r="L8" s="18" t="inlineStr">
+      <c r="L8" s="22" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
       </c>
-      <c r="M8" s="18" t="inlineStr">
+      <c r="M8" s="22" t="inlineStr">
         <is>
           <t>2021级本科生</t>
         </is>
       </c>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="22" t="n">
         <v>18589334369</v>
       </c>
-      <c r="O8" s="18" t="inlineStr">
+      <c r="O8" s="22" t="inlineStr">
         <is>
           <t>zth_1367927606</t>
         </is>
       </c>
-      <c r="P8" s="20" t="inlineStr">
+      <c r="P8" s="24" t="inlineStr">
         <is>
           <t>zhangtianhang@stu.pku.edu.cn</t>
         </is>
       </c>
-      <c r="Q8" s="18" t="inlineStr">
+      <c r="Q8" s="22" t="inlineStr">
         <is>
           <t>赵丹群</t>
         </is>
       </c>
-      <c r="R8" s="18" t="inlineStr">
+      <c r="R8" s="22" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="S8" s="18" t="inlineStr">
+      <c r="S8" s="22" t="inlineStr">
         <is>
           <t>信息管理系</t>
         </is>
       </c>
-      <c r="T8" s="18" t="inlineStr">
+      <c r="T8" s="22" t="inlineStr">
         <is>
           <t>教授</t>
         </is>
       </c>
-      <c r="U8" s="18" t="n">
+      <c r="U8" s="22" t="n">
         <v>13621284258</v>
       </c>
-      <c r="V8" s="18" t="inlineStr">
+      <c r="V8" s="22" t="inlineStr">
         <is>
           <t>zdq@pku.edu.cn</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.5" customHeight="1" s="9">
-      <c r="A9" s="18" t="n"/>
-      <c r="B9" s="17" t="n"/>
-      <c r="C9" s="18" t="n"/>
-      <c r="D9" s="18" t="n"/>
-      <c r="E9" s="18" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="18" t="n"/>
-      <c r="H9" s="18" t="n"/>
-      <c r="I9" s="18" t="n"/>
-      <c r="J9" s="18" t="n"/>
-      <c r="K9" s="18" t="n"/>
-      <c r="L9" s="18" t="n"/>
-      <c r="M9" s="18" t="n"/>
-      <c r="N9" s="18" t="n"/>
-      <c r="O9" s="18" t="n"/>
-      <c r="P9" s="18" t="n"/>
-      <c r="Q9" s="18" t="n"/>
-      <c r="R9" s="18" t="n"/>
-      <c r="S9" s="18" t="n"/>
-      <c r="T9" s="18" t="n"/>
-      <c r="U9" s="18" t="n"/>
-      <c r="V9" s="18" t="n"/>
+    <row r="9" ht="15.5" customHeight="1" s="13">
+      <c r="A9" s="22" t="n"/>
+      <c r="B9" s="21" t="n"/>
+      <c r="C9" s="22" t="n"/>
+      <c r="D9" s="22" t="n"/>
+      <c r="E9" s="22" t="n"/>
+      <c r="F9" s="22" t="n"/>
+      <c r="G9" s="22" t="n"/>
+      <c r="H9" s="22" t="n"/>
+      <c r="I9" s="22" t="n"/>
+      <c r="J9" s="22" t="n"/>
+      <c r="K9" s="22" t="n"/>
+      <c r="L9" s="22" t="n"/>
+      <c r="M9" s="22" t="n"/>
+      <c r="N9" s="22" t="n"/>
+      <c r="O9" s="22" t="n"/>
+      <c r="P9" s="22" t="n"/>
+      <c r="Q9" s="22" t="n"/>
+      <c r="R9" s="22" t="n"/>
+      <c r="S9" s="22" t="n"/>
+      <c r="T9" s="22" t="n"/>
+      <c r="U9" s="22" t="n"/>
+      <c r="V9" s="22" t="n"/>
     </row>
     <row r="10">
-      <c r="F10" s="19" t="n"/>
-    </row>
-    <row r="16" ht="26" customHeight="1" s="9"/>
+      <c r="F10" s="23" t="n"/>
+    </row>
+    <row r="16" ht="26" customHeight="1" s="13"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="A3:V3"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation sqref="I6:I9 R6:R9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
     <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"A.理工农医类,B.社会调查报告和人文社科类,C.发明创造科技制作类"</formula1>
     </dataValidation>
-    <dataValidation sqref="I6:I9 R6:R9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"男,女"</formula1>
+    <dataValidation sqref="D6:D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"理工农医类,社会调查报告和人文社科类,发明创造科技制作类"</formula1>
     </dataValidation>
     <dataValidation sqref="H6:H9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation sqref="D6:D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"理工农医类,社会调查报告和人文社科类,发明创造科技制作类"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="P6" r:id="rId1"/>
-    <hyperlink ref="P7" r:id="rId2"/>
-    <hyperlink ref="P8" r:id="rId3"/>
+    <hyperlink ref="P6" display="2100016640@stu.pku.edu.cn" r:id="rId1"/>
+    <hyperlink ref="P7" display="2301211715@pku.edu.cn" r:id="rId2"/>
+    <hyperlink ref="P8" display="zhangtianhang@stu.pku.edu.cn" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1264,254 +1780,254 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="13.15625" customWidth="1" style="9" min="1" max="1"/>
-    <col width="40.1015625" customWidth="1" style="9" min="2" max="2"/>
-    <col width="15.15625" customWidth="1" style="9" min="3" max="3"/>
-    <col width="19.15625" customWidth="1" style="9" min="4" max="4"/>
-    <col width="23.15625" customWidth="1" style="9" min="5" max="5"/>
-    <col width="10" customWidth="1" style="9" min="6" max="6"/>
-    <col width="25.15625" customWidth="1" style="9" min="7" max="7"/>
-    <col width="15.15625" customWidth="1" style="9" min="12" max="12"/>
-    <col width="17.15625" customWidth="1" style="9" min="15" max="15"/>
-    <col width="10" customWidth="1" style="9" min="19" max="19"/>
-    <col width="19.89453125" customWidth="1" style="9" min="20" max="21"/>
+    <col width="13.1834862385321" customWidth="1" style="13" min="1" max="1"/>
+    <col width="40.0917431192661" customWidth="1" style="13" min="2" max="2"/>
+    <col width="15.1834862385321" customWidth="1" style="13" min="3" max="3"/>
+    <col width="19.1834862385321" customWidth="1" style="13" min="4" max="4"/>
+    <col width="23.1834862385321" customWidth="1" style="13" min="5" max="5"/>
+    <col width="10" customWidth="1" style="13" min="6" max="6"/>
+    <col width="25.1834862385321" customWidth="1" style="13" min="7" max="7"/>
+    <col width="15.1834862385321" customWidth="1" style="13" min="12" max="12"/>
+    <col width="17.1834862385321" customWidth="1" style="13" min="15" max="15"/>
+    <col width="10" customWidth="1" style="13" min="19" max="19"/>
+    <col width="19.9082568807339" customWidth="1" style="13" min="20" max="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>请以参赛项目团队为单位完成此Excel，交至pku62747382@163.com；文件命名方式：跨学科+姓名（团队负责人）</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="22.05" customFormat="1" customHeight="1" s="12">
-      <c r="A2" s="23" t="inlineStr">
+    <row r="2" ht="22" customFormat="1" customHeight="1" s="16">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>北京大学第三十二届挑战杯  跨学科赛事 立项信息登记表</t>
         </is>
       </c>
     </row>
     <row r="3" ht="27.65" customFormat="1" customHeight="1" s="4">
-      <c r="A3" s="26" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B3" s="26" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>作品题目</t>
         </is>
       </c>
-      <c r="C3" s="26" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>参赛类别</t>
         </is>
       </c>
-      <c r="D3" s="26" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>学科门类</t>
         </is>
       </c>
-      <c r="E3" s="26" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>一级学科</t>
         </is>
       </c>
-      <c r="F3" s="26" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="G3" s="26" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>是否为团队负责人</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>性别</t>
         </is>
       </c>
-      <c r="I3" s="26" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>生源地</t>
         </is>
       </c>
-      <c r="J3" s="26" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
         <is>
           <t>学号</t>
         </is>
       </c>
-      <c r="K3" s="26" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>所在院系</t>
         </is>
       </c>
-      <c r="L3" s="26" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>年级（如20本）</t>
         </is>
       </c>
-      <c r="M3" s="26" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>手机</t>
         </is>
       </c>
-      <c r="N3" s="26" t="inlineStr">
+      <c r="N3" s="9" t="inlineStr">
         <is>
           <t>微信号</t>
         </is>
       </c>
-      <c r="O3" s="26" t="inlineStr">
+      <c r="O3" s="9" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="P3" s="26" t="inlineStr">
+      <c r="P3" s="9" t="inlineStr">
         <is>
           <t>指导教师姓名</t>
         </is>
       </c>
-      <c r="Q3" s="26" t="inlineStr">
+      <c r="Q3" s="9" t="inlineStr">
         <is>
           <t>指导教师性别</t>
         </is>
       </c>
-      <c r="R3" s="26" t="inlineStr">
+      <c r="R3" s="9" t="inlineStr">
         <is>
           <t>指导教师所在院系</t>
         </is>
       </c>
-      <c r="S3" s="26" t="inlineStr">
+      <c r="S3" s="9" t="inlineStr">
         <is>
           <t>指导教师职称/职务</t>
         </is>
       </c>
-      <c r="T3" s="26" t="inlineStr">
+      <c r="T3" s="9" t="inlineStr">
         <is>
           <t>指导教师电话</t>
         </is>
       </c>
-      <c r="U3" s="26" t="inlineStr">
+      <c r="U3" s="9" t="inlineStr">
         <is>
           <t>指导教师电子邮箱</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="25" t="inlineStr">
+      <c r="B4" s="9" t="n"/>
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>跨学科</t>
         </is>
       </c>
-      <c r="D4" s="18" t="n"/>
-      <c r="E4" s="25" t="n"/>
-      <c r="F4" s="18" t="n"/>
-      <c r="G4" s="18" t="n"/>
-      <c r="H4" s="18" t="n"/>
-      <c r="I4" s="18" t="n"/>
-      <c r="J4" s="18" t="n"/>
-      <c r="K4" s="18" t="n"/>
-      <c r="L4" s="18" t="n"/>
-      <c r="M4" s="18" t="n"/>
-      <c r="N4" s="18" t="n"/>
-      <c r="O4" s="18" t="n"/>
-      <c r="P4" s="18" t="n"/>
-      <c r="Q4" s="18" t="n"/>
-      <c r="R4" s="18" t="n"/>
-      <c r="S4" s="18" t="n"/>
-      <c r="T4" s="18" t="n"/>
-      <c r="U4" s="18" t="n"/>
+      <c r="D4" s="22" t="n"/>
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="22" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="22" t="n"/>
+      <c r="I4" s="22" t="n"/>
+      <c r="J4" s="22" t="n"/>
+      <c r="K4" s="22" t="n"/>
+      <c r="L4" s="22" t="n"/>
+      <c r="M4" s="22" t="n"/>
+      <c r="N4" s="22" t="n"/>
+      <c r="O4" s="22" t="n"/>
+      <c r="P4" s="22" t="n"/>
+      <c r="Q4" s="22" t="n"/>
+      <c r="R4" s="22" t="n"/>
+      <c r="S4" s="22" t="n"/>
+      <c r="T4" s="22" t="n"/>
+      <c r="U4" s="22" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="n"/>
-      <c r="B5" s="28" t="n"/>
-      <c r="C5" s="28" t="n"/>
-      <c r="D5" s="18" t="n"/>
-      <c r="E5" s="25" t="n"/>
-      <c r="F5" s="18" t="n"/>
-      <c r="G5" s="18" t="n"/>
-      <c r="H5" s="18" t="n"/>
-      <c r="I5" s="18" t="n"/>
-      <c r="J5" s="18" t="n"/>
-      <c r="K5" s="18" t="n"/>
-      <c r="L5" s="18" t="n"/>
-      <c r="M5" s="18" t="n"/>
-      <c r="N5" s="18" t="n"/>
-      <c r="O5" s="18" t="n"/>
-      <c r="P5" s="18" t="n"/>
-      <c r="Q5" s="18" t="n"/>
-      <c r="R5" s="18" t="n"/>
-      <c r="S5" s="18" t="n"/>
-      <c r="T5" s="18" t="n"/>
-      <c r="U5" s="18" t="n"/>
+      <c r="A5" s="26" t="n"/>
+      <c r="B5" s="26" t="n"/>
+      <c r="C5" s="26" t="n"/>
+      <c r="D5" s="22" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="22" t="n"/>
+      <c r="G5" s="22" t="n"/>
+      <c r="H5" s="22" t="n"/>
+      <c r="I5" s="22" t="n"/>
+      <c r="J5" s="22" t="n"/>
+      <c r="K5" s="22" t="n"/>
+      <c r="L5" s="22" t="n"/>
+      <c r="M5" s="22" t="n"/>
+      <c r="N5" s="22" t="n"/>
+      <c r="O5" s="22" t="n"/>
+      <c r="P5" s="22" t="n"/>
+      <c r="Q5" s="22" t="n"/>
+      <c r="R5" s="22" t="n"/>
+      <c r="S5" s="22" t="n"/>
+      <c r="T5" s="22" t="n"/>
+      <c r="U5" s="22" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="n"/>
-      <c r="B6" s="28" t="n"/>
-      <c r="C6" s="28" t="n"/>
-      <c r="D6" s="18" t="n"/>
-      <c r="E6" s="25" t="n"/>
-      <c r="F6" s="18" t="n"/>
-      <c r="G6" s="18" t="n"/>
-      <c r="H6" s="18" t="n"/>
-      <c r="I6" s="18" t="n"/>
-      <c r="J6" s="18" t="n"/>
-      <c r="K6" s="18" t="n"/>
-      <c r="L6" s="18" t="n"/>
-      <c r="M6" s="18" t="n"/>
-      <c r="N6" s="18" t="n"/>
-      <c r="O6" s="18" t="n"/>
-      <c r="P6" s="18" t="n"/>
-      <c r="Q6" s="18" t="n"/>
-      <c r="R6" s="18" t="n"/>
-      <c r="S6" s="18" t="n"/>
-      <c r="T6" s="18" t="n"/>
-      <c r="U6" s="18" t="n"/>
+      <c r="A6" s="26" t="n"/>
+      <c r="B6" s="26" t="n"/>
+      <c r="C6" s="26" t="n"/>
+      <c r="D6" s="22" t="n"/>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="22" t="n"/>
+      <c r="G6" s="22" t="n"/>
+      <c r="H6" s="22" t="n"/>
+      <c r="I6" s="22" t="n"/>
+      <c r="J6" s="22" t="n"/>
+      <c r="K6" s="22" t="n"/>
+      <c r="L6" s="22" t="n"/>
+      <c r="M6" s="22" t="n"/>
+      <c r="N6" s="22" t="n"/>
+      <c r="O6" s="22" t="n"/>
+      <c r="P6" s="22" t="n"/>
+      <c r="Q6" s="22" t="n"/>
+      <c r="R6" s="22" t="n"/>
+      <c r="S6" s="22" t="n"/>
+      <c r="T6" s="22" t="n"/>
+      <c r="U6" s="22" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="n"/>
-      <c r="B7" s="29" t="n"/>
-      <c r="C7" s="29" t="n"/>
-      <c r="D7" s="18" t="n"/>
-      <c r="E7" s="25" t="n"/>
-      <c r="F7" s="18" t="n"/>
-      <c r="G7" s="18" t="n"/>
-      <c r="H7" s="18" t="n"/>
-      <c r="I7" s="18" t="n"/>
-      <c r="J7" s="18" t="n"/>
-      <c r="K7" s="18" t="n"/>
-      <c r="L7" s="18" t="n"/>
-      <c r="M7" s="18" t="n"/>
-      <c r="N7" s="18" t="n"/>
-      <c r="O7" s="18" t="n"/>
-      <c r="P7" s="18" t="n"/>
-      <c r="Q7" s="18" t="n"/>
-      <c r="R7" s="18" t="n"/>
-      <c r="S7" s="18" t="n"/>
-      <c r="T7" s="18" t="n"/>
-      <c r="U7" s="18" t="n"/>
-    </row>
-    <row r="9" ht="14" customHeight="1" s="9">
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="11" t="n"/>
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="27" t="n"/>
+      <c r="C7" s="27" t="n"/>
+      <c r="D7" s="22" t="n"/>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="22" t="n"/>
+      <c r="G7" s="22" t="n"/>
+      <c r="H7" s="22" t="n"/>
+      <c r="I7" s="22" t="n"/>
+      <c r="J7" s="22" t="n"/>
+      <c r="K7" s="22" t="n"/>
+      <c r="L7" s="22" t="n"/>
+      <c r="M7" s="22" t="n"/>
+      <c r="N7" s="22" t="n"/>
+      <c r="O7" s="22" t="n"/>
+      <c r="P7" s="22" t="n"/>
+      <c r="Q7" s="22" t="n"/>
+      <c r="R7" s="22" t="n"/>
+      <c r="S7" s="22" t="n"/>
+      <c r="T7" s="22" t="n"/>
+      <c r="U7" s="22" t="n"/>
+    </row>
+    <row r="9" ht="14" customHeight="1" s="13">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="15" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="11" t="n"/>
+      <c r="B10" s="15" t="n"/>
+      <c r="C10" s="15" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>注：</t>
         </is>
@@ -1532,10 +2048,10 @@
           <t>2. 如有多名作者则所有作者信息都需填写；</t>
         </is>
       </c>
-      <c r="C15" s="10" t="n"/>
-      <c r="D15" s="10" t="n"/>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="10" t="n"/>
+      <c r="C15" s="14" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="14" t="n"/>
+      <c r="F15" s="14" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="0" t="inlineStr">
@@ -1543,19 +2059,19 @@
           <t>3. 出生年月格式（例）：1999.02。</t>
         </is>
       </c>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="10" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="10" t="n"/>
-      <c r="G16" s="10" t="n"/>
+      <c r="C16" s="14" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="14" t="n"/>
+      <c r="G16" s="14" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="10" t="n"/>
-      <c r="C17" s="10" t="n"/>
-      <c r="D17" s="10" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="10" t="n"/>
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" s="14" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="14" t="n"/>
+      <c r="F17" s="14" t="n"/>
+      <c r="G17" s="14" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1566,15 +2082,15 @@
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation sqref="G4:G7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation sqref="H4:H7 Q4:Q11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation sqref="G4:G7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1586,247 +2102,247 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="34.15625" customWidth="1" style="9" min="2" max="2"/>
-    <col width="15.15625" customWidth="1" style="9" min="3" max="3"/>
-    <col width="9.47265625" customWidth="1" style="9" min="4" max="4"/>
-    <col width="23.15625" customWidth="1" style="9" min="5" max="5"/>
-    <col width="11.734375" customWidth="1" style="9" min="6" max="6"/>
-    <col width="25.15625" customWidth="1" style="9" min="7" max="7"/>
-    <col width="15.15625" customWidth="1" style="9" min="12" max="12"/>
-    <col width="17.15625" customWidth="1" style="9" min="15" max="15"/>
-    <col width="10" customWidth="1" style="9" min="19" max="19"/>
-    <col width="15.89453125" customWidth="1" style="9" min="20" max="21"/>
-    <col width="29" customWidth="1" style="9" min="22" max="22"/>
+    <col width="34.1834862385321" customWidth="1" style="13" min="2" max="2"/>
+    <col width="15.1834862385321" customWidth="1" style="13" min="3" max="3"/>
+    <col width="9.44954128440367" customWidth="1" style="13" min="4" max="4"/>
+    <col width="23.1834862385321" customWidth="1" style="13" min="5" max="5"/>
+    <col width="11.7247706422018" customWidth="1" style="13" min="6" max="6"/>
+    <col width="25.1834862385321" customWidth="1" style="13" min="7" max="7"/>
+    <col width="15.1834862385321" customWidth="1" style="13" min="12" max="12"/>
+    <col width="17.1834862385321" customWidth="1" style="13" min="15" max="15"/>
+    <col width="10" customWidth="1" style="13" min="19" max="19"/>
+    <col width="15.9082568807339" customWidth="1" style="13" min="20" max="21"/>
+    <col width="29" customWidth="1" style="13" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>请以参赛项目团队为单位完成此Excel，交至pku62747382@163.com；文件命名方式：特贡+姓名（团队负责人）</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="23" customHeight="1" s="9">
-      <c r="A2" s="23" t="inlineStr">
+    <row r="2" ht="23" customHeight="1" s="13">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>北京大学第三十二届挑战杯  特别贡献奖赛事 立项信息登记表</t>
         </is>
       </c>
     </row>
     <row r="3" ht="27.65" customFormat="1" customHeight="1" s="4">
-      <c r="A3" s="26" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B3" s="26" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>作品题目</t>
         </is>
       </c>
-      <c r="C3" s="26" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>参赛类别</t>
         </is>
       </c>
-      <c r="D3" s="26" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>学科门类</t>
         </is>
       </c>
-      <c r="E3" s="26" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>一级学科</t>
         </is>
       </c>
-      <c r="F3" s="26" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="G3" s="26" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>是否为团队负责人</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>性别</t>
         </is>
       </c>
-      <c r="I3" s="26" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>生源地</t>
         </is>
       </c>
-      <c r="J3" s="26" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
         <is>
           <t>学号</t>
         </is>
       </c>
-      <c r="K3" s="26" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>所在院系</t>
         </is>
       </c>
-      <c r="L3" s="26" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>年级（如20本）</t>
         </is>
       </c>
-      <c r="M3" s="26" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>手机</t>
         </is>
       </c>
-      <c r="N3" s="26" t="inlineStr">
+      <c r="N3" s="9" t="inlineStr">
         <is>
           <t>微信号</t>
         </is>
       </c>
-      <c r="O3" s="26" t="inlineStr">
+      <c r="O3" s="9" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="P3" s="26" t="inlineStr">
+      <c r="P3" s="9" t="inlineStr">
         <is>
           <t>指导教师姓名</t>
         </is>
       </c>
-      <c r="Q3" s="26" t="inlineStr">
+      <c r="Q3" s="9" t="inlineStr">
         <is>
           <t>指导教师性别</t>
         </is>
       </c>
-      <c r="R3" s="26" t="inlineStr">
+      <c r="R3" s="9" t="inlineStr">
         <is>
           <t>指导教师所在院系</t>
         </is>
       </c>
-      <c r="S3" s="26" t="inlineStr">
+      <c r="S3" s="9" t="inlineStr">
         <is>
           <t>指导教师职称/职务</t>
         </is>
       </c>
-      <c r="T3" s="26" t="inlineStr">
+      <c r="T3" s="9" t="inlineStr">
         <is>
           <t>指导教师电话</t>
         </is>
       </c>
-      <c r="U3" s="26" t="inlineStr">
+      <c r="U3" s="9" t="inlineStr">
         <is>
           <t>指导教师电子邮箱</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="25" t="inlineStr">
+      <c r="B4" s="9" t="n"/>
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>特别贡献奖</t>
         </is>
       </c>
-      <c r="D4" s="18" t="n"/>
-      <c r="E4" s="25" t="n"/>
-      <c r="F4" s="18" t="n"/>
-      <c r="G4" s="18" t="n"/>
-      <c r="H4" s="18" t="n"/>
-      <c r="I4" s="18" t="n"/>
-      <c r="J4" s="18" t="n"/>
-      <c r="K4" s="18" t="n"/>
-      <c r="L4" s="18" t="n"/>
-      <c r="M4" s="18" t="n"/>
-      <c r="N4" s="18" t="n"/>
-      <c r="O4" s="18" t="n"/>
-      <c r="P4" s="18" t="n"/>
-      <c r="Q4" s="18" t="n"/>
-      <c r="R4" s="18" t="n"/>
-      <c r="S4" s="18" t="n"/>
-      <c r="T4" s="18" t="n"/>
-      <c r="U4" s="18" t="n"/>
+      <c r="D4" s="22" t="n"/>
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="22" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="22" t="n"/>
+      <c r="I4" s="22" t="n"/>
+      <c r="J4" s="22" t="n"/>
+      <c r="K4" s="22" t="n"/>
+      <c r="L4" s="22" t="n"/>
+      <c r="M4" s="22" t="n"/>
+      <c r="N4" s="22" t="n"/>
+      <c r="O4" s="22" t="n"/>
+      <c r="P4" s="22" t="n"/>
+      <c r="Q4" s="22" t="n"/>
+      <c r="R4" s="22" t="n"/>
+      <c r="S4" s="22" t="n"/>
+      <c r="T4" s="22" t="n"/>
+      <c r="U4" s="22" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="n"/>
-      <c r="B5" s="28" t="n"/>
-      <c r="C5" s="28" t="n"/>
-      <c r="D5" s="18" t="n"/>
-      <c r="E5" s="25" t="n"/>
-      <c r="F5" s="18" t="n"/>
-      <c r="G5" s="18" t="n"/>
-      <c r="H5" s="18" t="n"/>
-      <c r="I5" s="18" t="n"/>
-      <c r="J5" s="18" t="n"/>
-      <c r="K5" s="18" t="n"/>
-      <c r="L5" s="18" t="n"/>
-      <c r="M5" s="18" t="n"/>
-      <c r="N5" s="18" t="n"/>
-      <c r="O5" s="18" t="n"/>
-      <c r="P5" s="18" t="n"/>
-      <c r="Q5" s="18" t="n"/>
-      <c r="R5" s="18" t="n"/>
-      <c r="S5" s="18" t="n"/>
-      <c r="T5" s="18" t="n"/>
-      <c r="U5" s="18" t="n"/>
+      <c r="A5" s="26" t="n"/>
+      <c r="B5" s="26" t="n"/>
+      <c r="C5" s="26" t="n"/>
+      <c r="D5" s="22" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="22" t="n"/>
+      <c r="G5" s="22" t="n"/>
+      <c r="H5" s="22" t="n"/>
+      <c r="I5" s="22" t="n"/>
+      <c r="J5" s="22" t="n"/>
+      <c r="K5" s="22" t="n"/>
+      <c r="L5" s="22" t="n"/>
+      <c r="M5" s="22" t="n"/>
+      <c r="N5" s="22" t="n"/>
+      <c r="O5" s="22" t="n"/>
+      <c r="P5" s="22" t="n"/>
+      <c r="Q5" s="22" t="n"/>
+      <c r="R5" s="22" t="n"/>
+      <c r="S5" s="22" t="n"/>
+      <c r="T5" s="22" t="n"/>
+      <c r="U5" s="22" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="n"/>
-      <c r="B6" s="28" t="n"/>
-      <c r="C6" s="28" t="n"/>
-      <c r="D6" s="18" t="n"/>
-      <c r="E6" s="25" t="n"/>
-      <c r="F6" s="18" t="n"/>
-      <c r="G6" s="18" t="n"/>
-      <c r="H6" s="18" t="n"/>
-      <c r="I6" s="18" t="n"/>
-      <c r="J6" s="18" t="n"/>
-      <c r="K6" s="18" t="n"/>
-      <c r="L6" s="18" t="n"/>
-      <c r="M6" s="18" t="n"/>
-      <c r="N6" s="18" t="n"/>
-      <c r="O6" s="18" t="n"/>
-      <c r="P6" s="18" t="n"/>
-      <c r="Q6" s="18" t="n"/>
-      <c r="R6" s="18" t="n"/>
-      <c r="S6" s="18" t="n"/>
-      <c r="T6" s="18" t="n"/>
-      <c r="U6" s="18" t="n"/>
+      <c r="A6" s="26" t="n"/>
+      <c r="B6" s="26" t="n"/>
+      <c r="C6" s="26" t="n"/>
+      <c r="D6" s="22" t="n"/>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="22" t="n"/>
+      <c r="G6" s="22" t="n"/>
+      <c r="H6" s="22" t="n"/>
+      <c r="I6" s="22" t="n"/>
+      <c r="J6" s="22" t="n"/>
+      <c r="K6" s="22" t="n"/>
+      <c r="L6" s="22" t="n"/>
+      <c r="M6" s="22" t="n"/>
+      <c r="N6" s="22" t="n"/>
+      <c r="O6" s="22" t="n"/>
+      <c r="P6" s="22" t="n"/>
+      <c r="Q6" s="22" t="n"/>
+      <c r="R6" s="22" t="n"/>
+      <c r="S6" s="22" t="n"/>
+      <c r="T6" s="22" t="n"/>
+      <c r="U6" s="22" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="n"/>
-      <c r="B7" s="29" t="n"/>
-      <c r="C7" s="29" t="n"/>
-      <c r="D7" s="18" t="n"/>
-      <c r="E7" s="25" t="n"/>
-      <c r="F7" s="18" t="n"/>
-      <c r="G7" s="18" t="n"/>
-      <c r="H7" s="18" t="n"/>
-      <c r="I7" s="18" t="n"/>
-      <c r="J7" s="18" t="n"/>
-      <c r="K7" s="18" t="n"/>
-      <c r="L7" s="18" t="n"/>
-      <c r="M7" s="18" t="n"/>
-      <c r="N7" s="18" t="n"/>
-      <c r="O7" s="18" t="n"/>
-      <c r="P7" s="18" t="n"/>
-      <c r="Q7" s="18" t="n"/>
-      <c r="R7" s="18" t="n"/>
-      <c r="S7" s="18" t="n"/>
-      <c r="T7" s="18" t="n"/>
-      <c r="U7" s="18" t="n"/>
-    </row>
-    <row r="9" ht="25" customHeight="1" s="9"/>
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="27" t="n"/>
+      <c r="C7" s="27" t="n"/>
+      <c r="D7" s="22" t="n"/>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="22" t="n"/>
+      <c r="G7" s="22" t="n"/>
+      <c r="H7" s="22" t="n"/>
+      <c r="I7" s="22" t="n"/>
+      <c r="J7" s="22" t="n"/>
+      <c r="K7" s="22" t="n"/>
+      <c r="L7" s="22" t="n"/>
+      <c r="M7" s="22" t="n"/>
+      <c r="N7" s="22" t="n"/>
+      <c r="O7" s="22" t="n"/>
+      <c r="P7" s="22" t="n"/>
+      <c r="Q7" s="22" t="n"/>
+      <c r="R7" s="22" t="n"/>
+      <c r="S7" s="22" t="n"/>
+      <c r="T7" s="22" t="n"/>
+      <c r="U7" s="22" t="n"/>
+    </row>
+    <row r="9" ht="25" customHeight="1" s="13"/>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>注：</t>
         </is>
@@ -1852,21 +2368,21 @@
       </c>
     </row>
     <row r="16">
-      <c r="G16" s="10" t="n"/>
+      <c r="G16" s="14" t="n"/>
     </row>
     <row r="17">
-      <c r="D17" s="10" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="10" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="14" t="n"/>
+      <c r="F17" s="14" t="n"/>
+      <c r="G17" s="14" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="11" t="n"/>
-      <c r="C18" s="11" t="n"/>
+      <c r="B18" s="15" t="n"/>
+      <c r="C18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="11" t="n"/>
-      <c r="C19" s="11" t="n"/>
+      <c r="B19" s="15" t="n"/>
+      <c r="C19" s="15" t="n"/>
     </row>
     <row r="21">
       <c r="M21" s="0" t="inlineStr">
@@ -1884,15 +2400,15 @@
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation sqref="G4:G7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation sqref="H4:H7 Q4:Q11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation sqref="G4:G7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1904,19 +2420,19 @@
   </sheetPr>
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="14.15625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="27.7890625" customWidth="1" style="9" min="9" max="9"/>
-    <col width="15.1015625" customWidth="1" style="9" min="10" max="10"/>
-    <col width="17.89453125" customWidth="1" style="9" min="11" max="11"/>
-    <col width="18.3671875" customWidth="1" style="9" min="12" max="12"/>
-    <col width="15.62890625" customWidth="1" style="9" min="13" max="13"/>
-    <col width="12.5234375" customWidth="1" style="9" min="14" max="14"/>
+    <col width="14.1834862385321" customWidth="1" style="1" min="1" max="1"/>
+    <col width="27.8165137614679" customWidth="1" style="13" min="9" max="9"/>
+    <col width="15.0917431192661" customWidth="1" style="13" min="10" max="10"/>
+    <col width="17.9082568807339" customWidth="1" style="13" min="11" max="11"/>
+    <col width="18.3669724770642" customWidth="1" style="13" min="12" max="12"/>
+    <col width="15.6330275229358" customWidth="1" style="13" min="13" max="13"/>
+    <col width="12.5412844036697" customWidth="1" style="13" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3325,7 +3841,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3337,11 +3853,11 @@
   </sheetPr>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -4031,6 +4547,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>